--- a/analysis_specifications/analysis2_joel_3.xlsx
+++ b/analysis_specifications/analysis2_joel_3.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,16 +367,6 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>cohort_definition_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>746</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
     </row>

--- a/analysis_specifications/analysis2_joel_3.xlsx
+++ b/analysis_specifications/analysis2_joel_3.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,6 +367,16 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>cohort_definition_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>782</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
     </row>
